--- a/biology/Zoologie/Thomas_Bewick/Thomas_Bewick.xlsx
+++ b/biology/Zoologie/Thomas_Bewick/Thomas_Bewick.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Bewick, né le 10 août 1753 à Cherryburn près de Newcastle-upon-Tyne dans le Northumberland et mort le 8 novembre 1828, est un graveur et un ornithologue britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est charbonnier à Mickleybank et il fait ses études à Mickley. Thomas est pauvre mais montre, dès son jeune âge, un grand talent pour le dessin sans avoir, pour autant, suivi la moindre formation artistique. À 14 ans, il entre en apprentissage chez Ralph Beilby, un graveur de Newcastle-upon-Tyne. Bewick y fait une série de gravures sur bois pour illustrer un traité du Dr Hutton. Il semble, par la suite, s'être entièrement spécialisé dans cette technique et reçoit, en 1775, un prix de la Society for the Encouragement of Arts and Manufactures pour une gravure d’Huntsman and the Old Hound. En 1776, il devient associé dans l'entreprise de Beilby.
 Ses gravures pour Select Fables (1784) sont d'une qualité supérieure à tout ce qui a été fait auparavant. The Quadrupeds qui paraissent en 1790 sont une grande réussite de Bewick, son nom étant associé à cette œuvre ainsi que pour les British Birds, publiés entre 1797 et 1804. Bewick est aidé dans son travail par ses propres connaissances acquises en parcourant sa région et en y faisant de nombreuses observations. Même si Bewick ne contribue pas véritablement à l'avancée des connaissances, il participe, comme Gilbert White (1720-1793) avec son Natural History and Antiquities of Selborne (1789) à populariser l'observation des oiseaux.
@@ -546,7 +560,9 @@
           <t>Anecdotes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le premier chapitre du roman de Charlotte Brontë, la jeune Jane Eyre lit l'Histoire des oiseaux de Grande-Bretagne de Thomas Bewick. Voici un extrait de ses impressions :
 « Je repris mon livre l'Histoire des oiseaux de Grande-Bretagne de Bewick. D'une façon générale, je me souciais peu de son texte, et pourtant, tout enfant que j'étais, il y avait certaines pages de l'introduction que je ne pouvais me dispenser de lire : celles qui décrivent les repaires des oiseaux de mer, les « rocs et promontoires solitaires » qu'ils sont seuls à habiter, la côte de Norvège, parsemée depuis son extrémité méridionale, le cap Lindeness ou Naze, jusqu'au Cap Nord. (Charlotte Brontë, Jane Eyre, éd. Le Livre de poche, traduction de Charlotte Maurat.) »
@@ -578,7 +594,9 @@
           <t>Ouvrages numérisés et disponibles sur internet</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) A history of British birds : sur Internet Archive, édition de 1885 : volume 1 (oiseaux terrestres) et volume 2 (oiseaux aquatiques).</t>
         </is>
